--- a/ofc/estimates/बिन्ध्यबासिनी मन्दिर जाने सडक ढलान/v.xlsx
+++ b/ofc/estimates/बिन्ध्यबासिनी मन्दिर जाने सडक ढलान/v.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="1" r:id="rId1"/>
     <sheet name="Valuation" sheetId="6" r:id="rId2"/>
-    <sheet name="Field measurement" sheetId="5" state="hidden" r:id="rId3"/>
-    <sheet name="Measure" sheetId="8" r:id="rId4"/>
-    <sheet name="WCR" sheetId="7" r:id="rId5"/>
+    <sheet name="Field measurement" sheetId="5" r:id="rId3"/>
+    <sheet name="WCR" sheetId="7" r:id="rId4"/>
+    <sheet name="measure" sheetId="9" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -19,32 +19,34 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
-    <definedName name="description_124" localSheetId="3">#REF!</definedName>
+    <definedName name="description_124" localSheetId="4">#REF!</definedName>
     <definedName name="description_124">#REF!</definedName>
     <definedName name="description_247">[1]Abstract!$B$22</definedName>
     <definedName name="description_248">[1]Abstract!$B$23</definedName>
-    <definedName name="description_261">[3]Abstract!$B$33</definedName>
+    <definedName name="description_261">[2]Abstract!$B$33</definedName>
     <definedName name="description_262">[1]Abstract!$B$34</definedName>
     <definedName name="description_3">[1]Abstract!$B$169</definedName>
-    <definedName name="description_310">[4]Abstract!$B$60</definedName>
-    <definedName name="description_312">[5]Abstract!$B$61</definedName>
+    <definedName name="description_310">[3]Abstract!$B$60</definedName>
+    <definedName name="description_312">[4]Abstract!$B$61</definedName>
     <definedName name="description_5">[1]Abstract!$B$171</definedName>
-    <definedName name="description_6">[4]Abstract!$B$172</definedName>
+    <definedName name="description_6">[3]Abstract!$B$172</definedName>
     <definedName name="description_759">[1]Abstract!$B$278</definedName>
-    <definedName name="description_781">[6]Abstract!$B$299</definedName>
+    <definedName name="description_781">[5]Abstract!$B$299</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">WCR!$1:$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">measure!$A$1:$K$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Valuation!$A$1:$K$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">WCR!$A$1:$K$29</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">WCR!$1:$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="75">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -169,9 +171,6 @@
     <t xml:space="preserve">Contingencies </t>
   </si>
   <si>
-    <t xml:space="preserve">Maintanince </t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
@@ -184,9 +183,6 @@
     <t>Width</t>
   </si>
   <si>
-    <t>0+000</t>
-  </si>
-  <si>
     <t>0+002 to 0+004</t>
   </si>
   <si>
@@ -205,15 +201,9 @@
     <t>0+010 to 0+012</t>
   </si>
   <si>
-    <t>0+012 to 0+014.05</t>
-  </si>
-  <si>
     <t>Avg. width</t>
   </si>
   <si>
-    <t xml:space="preserve"> Chainage 0+000</t>
-  </si>
-  <si>
     <t>Avg. Width</t>
   </si>
   <si>
@@ -272,6 +262,15 @@
   </si>
   <si>
     <t>Date:2081/10/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance </t>
+  </si>
+  <si>
+    <t>Chainage 0+000</t>
+  </si>
+  <si>
+    <t>0+012 to 0+013.8</t>
   </si>
 </sst>
 </file>
@@ -558,80 +557,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -661,6 +595,73 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,21 +780,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="WCR"/>
-      <sheetName val="bendol estimate"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="Datasheet"/>
       <sheetName val="Abstract"/>
       <sheetName val="Quantity_Sheet"/>
@@ -849,7 +835,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -913,7 +899,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -972,7 +958,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1320,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,113 +1324,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="A2" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1482,7 +1468,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="88">
+      <c r="A9" s="65">
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1499,7 +1485,7 @@
       <c r="K9" s="48"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="49" t="s">
         <v>21</v>
       </c>
@@ -1583,7 +1569,7 @@
       <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
@@ -1596,7 +1582,7 @@
       <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="88">
+      <c r="A14" s="65">
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1692,7 +1678,7 @@
       <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
@@ -1761,7 +1747,7 @@
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="32"/>
       <c r="C21" s="23">
         <f>TRUNC(D20/0.15,0)</f>
@@ -1834,7 +1820,7 @@
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -2064,7 +2050,7 @@
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="20"/>
@@ -2084,11 +2070,11 @@
       <c r="B36" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="73">
         <f>J34</f>
         <v>226120.14918209484</v>
       </c>
-      <c r="D36" s="53"/>
+      <c r="D36" s="73"/>
       <c r="E36" s="21">
         <v>100</v>
       </c>
@@ -2104,10 +2090,10 @@
       <c r="B37" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="76">
         <v>200000</v>
       </c>
-      <c r="D37" s="56"/>
+      <c r="D37" s="76"/>
       <c r="E37" s="21"/>
       <c r="F37" s="44"/>
       <c r="G37" s="45"/>
@@ -2121,11 +2107,11 @@
       <c r="B38" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="56">
+      <c r="C38" s="76">
         <f>C37-C40-C41</f>
         <v>190000</v>
       </c>
-      <c r="D38" s="56"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="21">
         <f>C38/C36*100</f>
         <v>84.026125352939147</v>
@@ -2142,11 +2128,11 @@
       <c r="B39" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="53">
+      <c r="C39" s="73">
         <f>C36-C38</f>
         <v>36120.149182094843</v>
       </c>
-      <c r="D39" s="53"/>
+      <c r="D39" s="73"/>
       <c r="E39" s="21">
         <f>100-E38</f>
         <v>15.973874647060853</v>
@@ -2163,11 +2149,11 @@
       <c r="B40" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="73">
         <f>C37*0.03</f>
         <v>6000</v>
       </c>
-      <c r="D40" s="53"/>
+      <c r="D40" s="73"/>
       <c r="E40" s="21">
         <v>3</v>
       </c>
@@ -2181,13 +2167,13 @@
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
       <c r="B41" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="53">
+        <v>72</v>
+      </c>
+      <c r="C41" s="73">
         <f>C37*0.02</f>
         <v>4000</v>
       </c>
-      <c r="D41" s="53"/>
+      <c r="D41" s="73"/>
       <c r="E41" s="21">
         <v>2</v>
       </c>
@@ -2200,13 +2186,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="A7:F7"/>
@@ -2215,6 +2194,13 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2225,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,113 +2229,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="A2" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="A5" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
+      <c r="H7" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2387,7 +2373,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="88">
+      <c r="A9" s="65">
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2404,14 +2390,15 @@
       <c r="K9" s="48"/>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="50" t="s">
-        <v>55</v>
+      <c r="A10" s="65"/>
+      <c r="B10" s="50" t="str">
+        <f>'Field measurement'!B2</f>
+        <v>Chainage 0+000</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="52" t="s">
-        <v>56</v>
+      <c r="E10" s="51" t="s">
+        <v>52</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -2421,25 +2408,28 @@
       <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="50" t="s">
-        <v>48</v>
+      <c r="A11" s="65"/>
+      <c r="B11" s="50" t="str">
+        <f>'Field measurement'!B3</f>
+        <v>0+000 to 0+002</v>
       </c>
       <c r="C11" s="32">
         <v>1</v>
       </c>
       <c r="D11" s="33">
+        <f>'Field measurement'!C3</f>
         <v>2</v>
       </c>
-      <c r="E11" s="51">
-        <v>4.7249999999999996</v>
+      <c r="E11" s="33">
+        <f>'Field measurement'!E3</f>
+        <v>4.7</v>
       </c>
       <c r="F11" s="33">
         <v>0.15</v>
       </c>
       <c r="G11" s="33">
         <f>PRODUCT(C11:F11)</f>
-        <v>1.4174999999999998</v>
+        <v>1.41</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
@@ -2447,25 +2437,28 @@
       <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="50" t="s">
-        <v>47</v>
+      <c r="A12" s="65"/>
+      <c r="B12" s="50" t="str">
+        <f>'Field measurement'!B4</f>
+        <v>0+002 to 0+004</v>
       </c>
       <c r="C12" s="32">
         <v>1</v>
       </c>
       <c r="D12" s="33">
+        <f>'Field measurement'!C4</f>
         <v>2</v>
       </c>
-      <c r="E12" s="51">
-        <v>4.8000000000000007</v>
+      <c r="E12" s="33">
+        <f>'Field measurement'!E4</f>
+        <v>4.7</v>
       </c>
       <c r="F12" s="33">
         <v>0.15</v>
       </c>
       <c r="G12" s="33">
         <f t="shared" ref="G12:G17" si="0">PRODUCT(C12:F12)</f>
-        <v>1.4400000000000002</v>
+        <v>1.41</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
@@ -2473,25 +2466,28 @@
       <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="50" t="s">
-        <v>49</v>
+      <c r="A13" s="65"/>
+      <c r="B13" s="50" t="str">
+        <f>'Field measurement'!B5</f>
+        <v>0+004 to 0+006</v>
       </c>
       <c r="C13" s="32">
         <v>1</v>
       </c>
       <c r="D13" s="33">
+        <f>'Field measurement'!C5</f>
         <v>2</v>
       </c>
-      <c r="E13" s="51">
-        <v>4.71</v>
+      <c r="E13" s="33">
+        <f>'Field measurement'!E5</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F13" s="33">
         <v>0.15</v>
       </c>
       <c r="G13" s="33">
         <f t="shared" si="0"/>
-        <v>1.413</v>
+        <v>1.38</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
@@ -2499,25 +2495,28 @@
       <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="50" t="s">
-        <v>50</v>
+      <c r="A14" s="65"/>
+      <c r="B14" s="50" t="str">
+        <f>'Field measurement'!B6</f>
+        <v>0+006 to 0+008</v>
       </c>
       <c r="C14" s="32">
         <v>1</v>
       </c>
       <c r="D14" s="33">
+        <f>'Field measurement'!C6</f>
         <v>2</v>
       </c>
-      <c r="E14" s="51">
-        <v>4.57</v>
+      <c r="E14" s="33">
+        <f>'Field measurement'!E6</f>
+        <v>4.5</v>
       </c>
       <c r="F14" s="33">
         <v>0.15</v>
       </c>
       <c r="G14" s="33">
         <f t="shared" si="0"/>
-        <v>1.371</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
@@ -2525,25 +2524,28 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
-      <c r="B15" s="50" t="s">
-        <v>51</v>
+      <c r="A15" s="65"/>
+      <c r="B15" s="50" t="str">
+        <f>'Field measurement'!B7</f>
+        <v>0+008 to 0+010</v>
       </c>
       <c r="C15" s="32">
         <v>1</v>
       </c>
       <c r="D15" s="33">
+        <f>'Field measurement'!C7</f>
         <v>2</v>
       </c>
-      <c r="E15" s="51">
-        <v>4.6150000000000002</v>
+      <c r="E15" s="33">
+        <f>'Field measurement'!E7</f>
+        <v>4.5</v>
       </c>
       <c r="F15" s="33">
         <v>0.15</v>
       </c>
       <c r="G15" s="33">
         <f t="shared" si="0"/>
-        <v>1.3845000000000001</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
@@ -2551,25 +2553,28 @@
       <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="50" t="s">
-        <v>52</v>
+      <c r="A16" s="65"/>
+      <c r="B16" s="50" t="str">
+        <f>'Field measurement'!B8</f>
+        <v>0+010 to 0+012</v>
       </c>
       <c r="C16" s="32">
         <v>1</v>
       </c>
       <c r="D16" s="33">
+        <f>'Field measurement'!C8</f>
         <v>2</v>
       </c>
-      <c r="E16" s="51">
-        <v>4.53</v>
+      <c r="E16" s="33">
+        <f>'Field measurement'!E8</f>
+        <v>4.45</v>
       </c>
       <c r="F16" s="33">
         <v>0.15</v>
       </c>
       <c r="G16" s="33">
         <f t="shared" si="0"/>
-        <v>1.359</v>
+        <v>1.335</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
@@ -2577,25 +2582,28 @@
       <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="50" t="s">
-        <v>53</v>
+      <c r="A17" s="65"/>
+      <c r="B17" s="50" t="str">
+        <f>'Field measurement'!B9</f>
+        <v>0+012 to 0+013.8</v>
       </c>
       <c r="C17" s="32">
         <v>1</v>
       </c>
       <c r="D17" s="33">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E17" s="51">
-        <v>4.3949999999999996</v>
+        <f>'Field measurement'!C9</f>
+        <v>1.8</v>
+      </c>
+      <c r="E17" s="33">
+        <f>'Field measurement'!E9</f>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F17" s="33">
         <v>0.15</v>
       </c>
       <c r="G17" s="33">
         <f t="shared" si="0"/>
-        <v>1.3514624999999998</v>
+        <v>1.1744999999999999</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
@@ -2613,7 +2621,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14">
         <f>SUM(G11:G17)</f>
-        <v>9.7364625000000018</v>
+        <v>9.4094999999999995</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>23</v>
@@ -2623,7 +2631,7 @@
       </c>
       <c r="J18" s="16">
         <f>G18*I18</f>
-        <v>629.2675713750001</v>
+        <v>608.13598499999989</v>
       </c>
       <c r="K18" s="13"/>
       <c r="M18" s="17"/>
@@ -2648,7 +2656,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="16">
         <f>0.13*G18*19284/360</f>
-        <v>67.801479362500004</v>
+        <v>65.524621499999995</v>
       </c>
       <c r="K19" s="13"/>
       <c r="M19" s="17"/>
@@ -2660,7 +2668,7 @@
       <c r="S19" s="17"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
@@ -2673,7 +2681,7 @@
       <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="88">
+      <c r="A21" s="65">
         <v>2</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -2690,14 +2698,15 @@
       <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="50" t="s">
-        <v>55</v>
+      <c r="A22" s="65"/>
+      <c r="B22" s="50" t="str">
+        <f>B10</f>
+        <v>Chainage 0+000</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="33"/>
-      <c r="E22" s="52" t="s">
-        <v>56</v>
+      <c r="E22" s="51" t="s">
+        <v>52</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -2707,25 +2716,28 @@
       <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="88"/>
-      <c r="B23" s="50" t="s">
-        <v>48</v>
+      <c r="A23" s="65"/>
+      <c r="B23" s="50" t="str">
+        <f t="shared" ref="B23:B29" si="1">B11</f>
+        <v>0+000 to 0+002</v>
       </c>
       <c r="C23" s="32">
         <v>1</v>
       </c>
       <c r="D23" s="33">
+        <f>'Field measurement'!C3</f>
         <v>2</v>
       </c>
-      <c r="E23" s="51">
-        <v>4.7249999999999996</v>
+      <c r="E23" s="33">
+        <f>'Field measurement'!E3</f>
+        <v>4.7</v>
       </c>
       <c r="F23" s="33">
         <v>0.15</v>
       </c>
       <c r="G23" s="33">
         <f>PRODUCT(C23:F23)</f>
-        <v>1.4174999999999998</v>
+        <v>1.41</v>
       </c>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
@@ -2733,25 +2745,28 @@
       <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
-      <c r="B24" s="50" t="s">
-        <v>47</v>
+      <c r="A24" s="65"/>
+      <c r="B24" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>0+002 to 0+004</v>
       </c>
       <c r="C24" s="32">
         <v>1</v>
       </c>
       <c r="D24" s="33">
+        <f>'Field measurement'!C4</f>
         <v>2</v>
       </c>
-      <c r="E24" s="51">
-        <v>4.8000000000000007</v>
+      <c r="E24" s="33">
+        <f>'Field measurement'!E4</f>
+        <v>4.7</v>
       </c>
       <c r="F24" s="33">
         <v>0.15</v>
       </c>
       <c r="G24" s="33">
-        <f t="shared" ref="G24:G29" si="1">PRODUCT(C24:F24)</f>
-        <v>1.4400000000000002</v>
+        <f t="shared" ref="G24:G29" si="2">PRODUCT(C24:F24)</f>
+        <v>1.41</v>
       </c>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
@@ -2759,25 +2774,28 @@
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="88"/>
-      <c r="B25" s="50" t="s">
-        <v>49</v>
+      <c r="A25" s="65"/>
+      <c r="B25" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>0+004 to 0+006</v>
       </c>
       <c r="C25" s="32">
         <v>1</v>
       </c>
       <c r="D25" s="33">
+        <f>'Field measurement'!C5</f>
         <v>2</v>
       </c>
-      <c r="E25" s="51">
-        <v>4.71</v>
+      <c r="E25" s="33">
+        <f>'Field measurement'!E5</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F25" s="33">
         <v>0.15</v>
       </c>
       <c r="G25" s="33">
-        <f t="shared" si="1"/>
-        <v>1.413</v>
+        <f t="shared" si="2"/>
+        <v>1.38</v>
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
@@ -2785,25 +2803,28 @@
       <c r="K25" s="32"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="88"/>
-      <c r="B26" s="50" t="s">
-        <v>50</v>
+      <c r="A26" s="65"/>
+      <c r="B26" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>0+006 to 0+008</v>
       </c>
       <c r="C26" s="32">
         <v>1</v>
       </c>
       <c r="D26" s="33">
+        <f>'Field measurement'!C6</f>
         <v>2</v>
       </c>
-      <c r="E26" s="51">
-        <v>4.57</v>
+      <c r="E26" s="33">
+        <f>'Field measurement'!E6</f>
+        <v>4.5</v>
       </c>
       <c r="F26" s="33">
         <v>0.15</v>
       </c>
       <c r="G26" s="33">
-        <f t="shared" si="1"/>
-        <v>1.371</v>
+        <f t="shared" si="2"/>
+        <v>1.3499999999999999</v>
       </c>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
@@ -2811,25 +2832,28 @@
       <c r="K26" s="32"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="88"/>
-      <c r="B27" s="50" t="s">
-        <v>51</v>
+      <c r="A27" s="65"/>
+      <c r="B27" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>0+008 to 0+010</v>
       </c>
       <c r="C27" s="32">
         <v>1</v>
       </c>
       <c r="D27" s="33">
+        <f>'Field measurement'!C7</f>
         <v>2</v>
       </c>
-      <c r="E27" s="51">
-        <v>4.6150000000000002</v>
+      <c r="E27" s="33">
+        <f>'Field measurement'!E7</f>
+        <v>4.5</v>
       </c>
       <c r="F27" s="33">
         <v>0.15</v>
       </c>
       <c r="G27" s="33">
-        <f t="shared" si="1"/>
-        <v>1.3845000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1.3499999999999999</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
@@ -2837,25 +2861,28 @@
       <c r="K27" s="32"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="88"/>
-      <c r="B28" s="50" t="s">
-        <v>52</v>
+      <c r="A28" s="65"/>
+      <c r="B28" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>0+010 to 0+012</v>
       </c>
       <c r="C28" s="32">
         <v>1</v>
       </c>
       <c r="D28" s="33">
+        <f>'Field measurement'!C8</f>
         <v>2</v>
       </c>
-      <c r="E28" s="51">
-        <v>4.53</v>
+      <c r="E28" s="33">
+        <f>'Field measurement'!E8</f>
+        <v>4.45</v>
       </c>
       <c r="F28" s="33">
         <v>0.15</v>
       </c>
       <c r="G28" s="33">
-        <f t="shared" si="1"/>
-        <v>1.359</v>
+        <f t="shared" si="2"/>
+        <v>1.335</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
@@ -2863,25 +2890,28 @@
       <c r="K28" s="32"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="88"/>
-      <c r="B29" s="50" t="s">
-        <v>53</v>
+      <c r="A29" s="65"/>
+      <c r="B29" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>0+012 to 0+013.8</v>
       </c>
       <c r="C29" s="32">
         <v>1</v>
       </c>
       <c r="D29" s="33">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E29" s="51">
-        <v>4.3949999999999996</v>
+        <f>'Field measurement'!C9</f>
+        <v>1.8</v>
+      </c>
+      <c r="E29" s="33">
+        <f>'Field measurement'!E9</f>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F29" s="33">
         <v>0.15</v>
       </c>
       <c r="G29" s="33">
-        <f t="shared" si="1"/>
-        <v>1.3514624999999998</v>
+        <f t="shared" si="2"/>
+        <v>1.1744999999999999</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -2899,7 +2929,7 @@
       <c r="F30" s="24"/>
       <c r="G30" s="25">
         <f>SUM(G22:G29)</f>
-        <v>9.7364625000000018</v>
+        <v>9.4094999999999995</v>
       </c>
       <c r="H30" s="25" t="s">
         <v>23</v>
@@ -2909,7 +2939,7 @@
       </c>
       <c r="J30" s="26">
         <f>G30*I30</f>
-        <v>44413.165787625003</v>
+        <v>42921.716534999992</v>
       </c>
       <c r="K30" s="19"/>
     </row>
@@ -2927,12 +2957,12 @@
       <c r="I31" s="24"/>
       <c r="J31" s="27">
         <f>0.13*G30*(15452.6/5)</f>
-        <v>3911.7951711150008</v>
+        <v>3780.4322322000003</v>
       </c>
       <c r="K31" s="19"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="88"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
@@ -2980,11 +3010,11 @@
       </c>
       <c r="C34" s="23">
         <f>TRUNC(D35/(0.15),0)</f>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="24">
         <f>AVERAGE(E23:E29)</f>
-        <v>4.6207142857142856</v>
+        <v>4.5428571428571427</v>
       </c>
       <c r="E34" s="24">
         <f>8*8/162</f>
@@ -2992,11 +3022,11 @@
       </c>
       <c r="F34" s="24">
         <f>PRODUCT(C34:E34)</f>
-        <v>169.76846560846559</v>
+        <v>163.31851851851849</v>
       </c>
       <c r="G34" s="24">
         <f>F34/1000</f>
-        <v>0.16976846560846559</v>
+        <v>0.16331851851851847</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -3004,7 +3034,7 @@
       <c r="K34" s="19"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="32"/>
       <c r="C35" s="23">
         <f>TRUNC(D34/(0.15),0)</f>
@@ -3012,7 +3042,7 @@
       </c>
       <c r="D35" s="33">
         <f>SUM(D23:D29)-0.1</f>
-        <v>13.950000000000001</v>
+        <v>13.700000000000001</v>
       </c>
       <c r="E35" s="24">
         <f>8*8/162</f>
@@ -3020,11 +3050,11 @@
       </c>
       <c r="F35" s="24">
         <f>PRODUCT(C35:E35)</f>
-        <v>165.33333333333334</v>
+        <v>162.37037037037038</v>
       </c>
       <c r="G35" s="24">
         <f>F35/1000</f>
-        <v>0.16533333333333333</v>
+        <v>0.16237037037037039</v>
       </c>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -3044,7 +3074,7 @@
       <c r="F36" s="24"/>
       <c r="G36" s="25">
         <f>SUM(G34:G35)</f>
-        <v>0.33510179894179892</v>
+        <v>0.32568888888888886</v>
       </c>
       <c r="H36" s="25" t="s">
         <v>30</v>
@@ -3054,7 +3084,7 @@
       </c>
       <c r="J36" s="26">
         <f>G36*I36</f>
-        <v>41599.537320634918</v>
+        <v>40431.018666666663</v>
       </c>
       <c r="K36" s="19"/>
     </row>
@@ -3072,22 +3102,22 @@
       <c r="I37" s="24"/>
       <c r="J37" s="27">
         <f>0.13*G36*110960</f>
-        <v>4833.7764293756609</v>
+        <v>4697.9970844444442</v>
       </c>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="88"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="19"/>
     </row>
     <row r="39" spans="1:14" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
@@ -3107,14 +3137,15 @@
       <c r="K39" s="31"/>
     </row>
     <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="88"/>
-      <c r="B40" s="50" t="s">
-        <v>55</v>
+      <c r="A40" s="65"/>
+      <c r="B40" s="50" t="str">
+        <f>B10</f>
+        <v>Chainage 0+000</v>
       </c>
       <c r="C40" s="32"/>
       <c r="D40" s="33"/>
-      <c r="E40" s="52" t="s">
-        <v>56</v>
+      <c r="E40" s="51" t="s">
+        <v>52</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -3124,25 +3155,28 @@
       <c r="K40" s="32"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="88"/>
-      <c r="B41" s="50" t="s">
-        <v>48</v>
+      <c r="A41" s="65"/>
+      <c r="B41" s="50" t="str">
+        <f t="shared" ref="B41:B47" si="3">B11</f>
+        <v>0+000 to 0+002</v>
       </c>
       <c r="C41" s="32">
         <v>1</v>
       </c>
       <c r="D41" s="33">
+        <f>'Field measurement'!C3</f>
         <v>2</v>
       </c>
-      <c r="E41" s="51">
-        <v>4.7249999999999996</v>
+      <c r="E41" s="33">
+        <f>'Field measurement'!E3</f>
+        <v>4.7</v>
       </c>
       <c r="F41" s="33">
         <v>0.15</v>
       </c>
       <c r="G41" s="33">
         <f>PRODUCT(C41:F41)</f>
-        <v>1.4174999999999998</v>
+        <v>1.41</v>
       </c>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -3150,25 +3184,28 @@
       <c r="K41" s="32"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="88"/>
-      <c r="B42" s="50" t="s">
-        <v>47</v>
+      <c r="A42" s="65"/>
+      <c r="B42" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>0+002 to 0+004</v>
       </c>
       <c r="C42" s="32">
         <v>1</v>
       </c>
       <c r="D42" s="33">
+        <f>'Field measurement'!C4</f>
         <v>2</v>
       </c>
-      <c r="E42" s="51">
-        <v>4.8000000000000007</v>
+      <c r="E42" s="33">
+        <f>'Field measurement'!E4</f>
+        <v>4.7</v>
       </c>
       <c r="F42" s="33">
         <v>0.15</v>
       </c>
       <c r="G42" s="33">
-        <f t="shared" ref="G42:G47" si="2">PRODUCT(C42:F42)</f>
-        <v>1.4400000000000002</v>
+        <f t="shared" ref="G42:G47" si="4">PRODUCT(C42:F42)</f>
+        <v>1.41</v>
       </c>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
@@ -3176,25 +3213,28 @@
       <c r="K42" s="32"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="88"/>
-      <c r="B43" s="50" t="s">
-        <v>49</v>
+      <c r="A43" s="65"/>
+      <c r="B43" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>0+004 to 0+006</v>
       </c>
       <c r="C43" s="32">
         <v>1</v>
       </c>
       <c r="D43" s="33">
+        <f>'Field measurement'!C5</f>
         <v>2</v>
       </c>
-      <c r="E43" s="51">
-        <v>4.71</v>
+      <c r="E43" s="33">
+        <f>'Field measurement'!E5</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F43" s="33">
         <v>0.15</v>
       </c>
       <c r="G43" s="33">
-        <f t="shared" si="2"/>
-        <v>1.413</v>
+        <f t="shared" si="4"/>
+        <v>1.38</v>
       </c>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
@@ -3202,25 +3242,28 @@
       <c r="K43" s="32"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="88"/>
-      <c r="B44" s="50" t="s">
-        <v>50</v>
+      <c r="A44" s="65"/>
+      <c r="B44" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>0+006 to 0+008</v>
       </c>
       <c r="C44" s="32">
         <v>1</v>
       </c>
       <c r="D44" s="33">
+        <f>'Field measurement'!C6</f>
         <v>2</v>
       </c>
-      <c r="E44" s="51">
-        <v>4.57</v>
+      <c r="E44" s="33">
+        <f>'Field measurement'!E6</f>
+        <v>4.5</v>
       </c>
       <c r="F44" s="33">
         <v>0.15</v>
       </c>
       <c r="G44" s="33">
-        <f t="shared" si="2"/>
-        <v>1.371</v>
+        <f t="shared" si="4"/>
+        <v>1.3499999999999999</v>
       </c>
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
@@ -3228,25 +3271,28 @@
       <c r="K44" s="32"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="88"/>
-      <c r="B45" s="50" t="s">
-        <v>51</v>
+      <c r="A45" s="65"/>
+      <c r="B45" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>0+008 to 0+010</v>
       </c>
       <c r="C45" s="32">
         <v>1</v>
       </c>
       <c r="D45" s="33">
+        <f>'Field measurement'!C7</f>
         <v>2</v>
       </c>
-      <c r="E45" s="51">
-        <v>4.6150000000000002</v>
+      <c r="E45" s="33">
+        <f>'Field measurement'!E7</f>
+        <v>4.5</v>
       </c>
       <c r="F45" s="33">
         <v>0.15</v>
       </c>
       <c r="G45" s="33">
-        <f t="shared" si="2"/>
-        <v>1.3845000000000001</v>
+        <f t="shared" si="4"/>
+        <v>1.3499999999999999</v>
       </c>
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
@@ -3254,25 +3300,28 @@
       <c r="K45" s="32"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="88"/>
-      <c r="B46" s="50" t="s">
-        <v>52</v>
+      <c r="A46" s="65"/>
+      <c r="B46" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>0+010 to 0+012</v>
       </c>
       <c r="C46" s="32">
         <v>1</v>
       </c>
       <c r="D46" s="33">
+        <f>'Field measurement'!C8</f>
         <v>2</v>
       </c>
-      <c r="E46" s="51">
-        <v>4.53</v>
+      <c r="E46" s="33">
+        <f>'Field measurement'!E8</f>
+        <v>4.45</v>
       </c>
       <c r="F46" s="33">
         <v>0.15</v>
       </c>
       <c r="G46" s="33">
-        <f t="shared" si="2"/>
-        <v>1.359</v>
+        <f t="shared" si="4"/>
+        <v>1.335</v>
       </c>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
@@ -3280,25 +3329,28 @@
       <c r="K46" s="32"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="88"/>
-      <c r="B47" s="50" t="s">
-        <v>53</v>
+      <c r="A47" s="65"/>
+      <c r="B47" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>0+012 to 0+013.8</v>
       </c>
       <c r="C47" s="32">
         <v>1</v>
       </c>
       <c r="D47" s="33">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E47" s="51">
-        <v>4.3949999999999996</v>
+        <f>'Field measurement'!C9</f>
+        <v>1.8</v>
+      </c>
+      <c r="E47" s="33">
+        <f>'Field measurement'!E9</f>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F47" s="33">
         <v>0.15</v>
       </c>
       <c r="G47" s="33">
-        <f t="shared" si="2"/>
-        <v>1.3514624999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.1744999999999999</v>
       </c>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
@@ -3316,7 +3368,7 @@
       <c r="F48" s="24"/>
       <c r="G48" s="25">
         <f>SUM(G41:G47)</f>
-        <v>9.7364625000000018</v>
+        <v>9.4094999999999995</v>
       </c>
       <c r="H48" s="25" t="s">
         <v>23</v>
@@ -3326,7 +3378,7 @@
       </c>
       <c r="J48" s="26">
         <f>G48*I48</f>
-        <v>112827.78264862503</v>
+        <v>109038.88561499999</v>
       </c>
       <c r="K48" s="19"/>
     </row>
@@ -3344,7 +3396,7 @@
       <c r="I49" s="24"/>
       <c r="J49" s="27">
         <f>0.13*G48*((128662.2+6685.5)/15)</f>
-        <v>11421.000981097503</v>
+        <v>11037.469587300002</v>
       </c>
       <c r="K49" s="19"/>
     </row>
@@ -3375,7 +3427,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="36">
-        <f t="shared" ref="G51" si="3">PRODUCT(C51:F51)</f>
+        <f t="shared" ref="G51" si="5">PRODUCT(C51:F51)</f>
         <v>1</v>
       </c>
       <c r="H51" s="15" t="s">
@@ -3431,7 +3483,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="36">
-        <f t="shared" ref="G53" si="4">PRODUCT(C53:F53)</f>
+        <f t="shared" ref="G53" si="6">PRODUCT(C53:F53)</f>
         <v>1</v>
       </c>
       <c r="H53" s="15" t="s">
@@ -3453,30 +3505,23 @@
       <c r="R53" s="17"/>
       <c r="S53" s="17"/>
     </row>
-    <row r="54" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="13"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="28"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" s="47"/>
       <c r="D55" s="20"/>
@@ -3487,20 +3532,20 @@
       <c r="I55" s="16"/>
       <c r="J55" s="16">
         <f>SUM(J18:J53)</f>
-        <v>235204.12738921063</v>
+        <v>228081.1803271111</v>
       </c>
       <c r="K55" s="19"/>
     </row>
     <row r="57" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37"/>
       <c r="B57" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="53">
+        <v>69</v>
+      </c>
+      <c r="C57" s="73">
         <f>J55</f>
-        <v>235204.12738921063</v>
-      </c>
-      <c r="D57" s="53"/>
+        <v>228081.1803271111</v>
+      </c>
+      <c r="D57" s="73"/>
       <c r="E57" s="21">
         <v>100</v>
       </c>
@@ -3516,10 +3561,10 @@
       <c r="B58" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="56">
+      <c r="C58" s="76">
         <v>200000</v>
       </c>
-      <c r="D58" s="56"/>
+      <c r="D58" s="76"/>
       <c r="E58" s="21"/>
       <c r="F58" s="44"/>
       <c r="G58" s="45"/>
@@ -3533,14 +3578,14 @@
       <c r="B59" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="56">
+      <c r="C59" s="76">
         <f>C58-C61-C62</f>
         <v>190000</v>
       </c>
-      <c r="D59" s="56"/>
+      <c r="D59" s="76"/>
       <c r="E59" s="21">
         <f>C59/C57*100</f>
-        <v>80.78089534780662</v>
+        <v>83.303672721924897</v>
       </c>
       <c r="F59" s="44"/>
       <c r="G59" s="45"/>
@@ -3554,14 +3599,14 @@
       <c r="B60" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="53">
+      <c r="C60" s="73">
         <f>C57-C59</f>
-        <v>45204.127389210626</v>
-      </c>
-      <c r="D60" s="53"/>
+        <v>38081.180327111098</v>
+      </c>
+      <c r="D60" s="73"/>
       <c r="E60" s="21">
         <f>100-E59</f>
-        <v>19.21910465219338</v>
+        <v>16.696327278075103</v>
       </c>
       <c r="F60" s="44"/>
       <c r="G60" s="45"/>
@@ -3575,11 +3620,11 @@
       <c r="B61" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="53">
+      <c r="C61" s="73">
         <f>C58*0.03</f>
         <v>6000</v>
       </c>
-      <c r="D61" s="53"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="21">
         <v>3</v>
       </c>
@@ -3593,13 +3638,13 @@
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="53">
+        <v>72</v>
+      </c>
+      <c r="C62" s="73">
         <f>C58*0.02</f>
         <v>4000</v>
       </c>
-      <c r="D62" s="53"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="21">
         <v>2</v>
       </c>
@@ -3612,13 +3657,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="A7:F7"/>
@@ -3627,9 +3665,19 @@
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3638,7 +3686,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3649,35 +3697,35 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3687,97 +3735,97 @@
       </c>
       <c r="E3" s="34">
         <f>(D2+D3)/2</f>
-        <v>4.7249999999999996</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="E4" s="34">
         <f t="shared" ref="E4:E9" si="0">(D3+D4)/2</f>
-        <v>4.8000000000000007</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>4.5199999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="E5" s="34">
         <f t="shared" si="0"/>
-        <v>4.71</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>4.62</v>
+        <v>4.5</v>
       </c>
       <c r="E6" s="34">
         <f t="shared" si="0"/>
-        <v>4.57</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>4.6100000000000003</v>
+        <v>4.5</v>
       </c>
       <c r="E7" s="34">
         <f t="shared" si="0"/>
-        <v>4.6150000000000002</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>4.45</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E8" s="34">
         <f t="shared" si="0"/>
-        <v>4.53</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C9">
-        <v>2.0499999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="D9">
-        <v>4.34</v>
+        <v>4.3</v>
       </c>
       <c r="E9" s="34">
         <f t="shared" si="0"/>
-        <v>4.3949999999999996</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -3787,10 +3835,727 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+    </row>
+    <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+    </row>
+    <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="87">
+        <f>F29</f>
+        <v>226120.14918209484</v>
+      </c>
+      <c r="D6" s="88"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="87">
+        <f>I29</f>
+        <v>228081.1803271111</v>
+      </c>
+      <c r="K6" s="88"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="I7" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="str">
+        <f>Estimate!A6</f>
+        <v>Project:- बिन्ध्यबासिनी मन्दिर जाने सडक ढलान</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="I8" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="83" t="str">
+        <f>Estimate!A7</f>
+        <v>Location:- Shankharapur Municipality 9</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="I9" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="78"/>
+      <c r="K12" s="77"/>
+    </row>
+    <row r="13" spans="1:11" s="18" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="66">
+        <f>Estimate!A9</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="59" t="str">
+        <f>Estimate!B9</f>
+        <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</v>
+      </c>
+      <c r="C13" s="56" t="str">
+        <f>Estimate!H11</f>
+        <v>m3</v>
+      </c>
+      <c r="D13" s="56">
+        <f>Estimate!G11</f>
+        <v>9.4087168546174933</v>
+      </c>
+      <c r="E13" s="56">
+        <f>Estimate!I11</f>
+        <v>64.63</v>
+      </c>
+      <c r="F13" s="56">
+        <f>D13*E13</f>
+        <v>608.08537031392859</v>
+      </c>
+      <c r="G13" s="56">
+        <f>Valuation!G18</f>
+        <v>9.4094999999999995</v>
+      </c>
+      <c r="H13" s="56">
+        <f>Valuation!I18</f>
+        <v>64.63</v>
+      </c>
+      <c r="I13" s="56">
+        <f>G13*H13</f>
+        <v>608.13598499999989</v>
+      </c>
+      <c r="J13" s="57">
+        <f>I13-F13</f>
+        <v>5.061468607129882E-2</v>
+      </c>
+      <c r="K13" s="58"/>
+    </row>
+    <row r="14" spans="1:11" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="64" t="str">
+        <f>Estimate!B12</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56">
+        <f>Estimate!J12</f>
+        <v>65.519167936604688</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56">
+        <f>Valuation!J19</f>
+        <v>65.524621499999995</v>
+      </c>
+      <c r="J14" s="57">
+        <f>I14-F14</f>
+        <v>5.4535633953065599E-3</v>
+      </c>
+      <c r="K14" s="58"/>
+    </row>
+    <row r="15" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
+    </row>
+    <row r="16" spans="1:11" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="66">
+        <f>Estimate!A14</f>
+        <v>2</v>
+      </c>
+      <c r="B16" s="59" t="str">
+        <f>Estimate!B14</f>
+        <v>Providing and laying of hand pack Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</v>
+      </c>
+      <c r="C16" s="56" t="str">
+        <f>Estimate!H16</f>
+        <v>m3</v>
+      </c>
+      <c r="D16" s="56">
+        <f>Estimate!G16</f>
+        <v>9.4087168546174933</v>
+      </c>
+      <c r="E16" s="56">
+        <f>Estimate!I16</f>
+        <v>4561.53</v>
+      </c>
+      <c r="F16" s="56">
+        <f>D16*E16</f>
+        <v>42918.144193843335</v>
+      </c>
+      <c r="G16" s="56">
+        <f>Valuation!G30</f>
+        <v>9.4094999999999995</v>
+      </c>
+      <c r="H16" s="56">
+        <f>Valuation!I30</f>
+        <v>4561.53</v>
+      </c>
+      <c r="I16" s="56">
+        <f>G16*H16</f>
+        <v>42921.716534999992</v>
+      </c>
+      <c r="J16" s="57">
+        <f>I16-F16</f>
+        <v>3.5723411566577852</v>
+      </c>
+      <c r="K16" s="58"/>
+    </row>
+    <row r="17" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="66"/>
+      <c r="B17" s="64" t="str">
+        <f>Estimate!B17</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56">
+        <f>Estimate!J17</f>
+        <v>3780.1175897592188</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56">
+        <f>Valuation!J31</f>
+        <v>3780.4322322000003</v>
+      </c>
+      <c r="J17" s="57">
+        <f>I17-F17</f>
+        <v>0.31464244078142656</v>
+      </c>
+      <c r="K17" s="58"/>
+    </row>
+    <row r="18" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
+    </row>
+    <row r="19" spans="1:13" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="66">
+        <f>Estimate!A19</f>
+        <v>3</v>
+      </c>
+      <c r="B19" s="59" t="str">
+        <f>Estimate!B19</f>
+        <v>Providing and laying , fitting and placing HYSD bar reinforcement in sub-structure complete as per Drawing and Technical Specifications</v>
+      </c>
+      <c r="C19" s="56" t="str">
+        <f>Estimate!H22</f>
+        <v>MT</v>
+      </c>
+      <c r="D19" s="56">
+        <f>Estimate!G22</f>
+        <v>0.31163702123336379</v>
+      </c>
+      <c r="E19" s="56">
+        <f>Estimate!I22</f>
+        <v>124140</v>
+      </c>
+      <c r="F19" s="56">
+        <f>D19*E19</f>
+        <v>38686.619815909784</v>
+      </c>
+      <c r="G19" s="56">
+        <f>Valuation!G36</f>
+        <v>0.32568888888888886</v>
+      </c>
+      <c r="H19" s="56">
+        <f>Valuation!I36</f>
+        <v>124140</v>
+      </c>
+      <c r="I19" s="56">
+        <f>G19*H19</f>
+        <v>40431.018666666663</v>
+      </c>
+      <c r="J19" s="57">
+        <f>I19-F19</f>
+        <v>1744.3988507568793</v>
+      </c>
+      <c r="K19" s="58"/>
+    </row>
+    <row r="20" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="66"/>
+      <c r="B20" s="64" t="str">
+        <f>Estimate!B23</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56">
+        <f>Estimate!J23</f>
+        <v>4495.3017038870266</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56">
+        <f>Valuation!J37</f>
+        <v>4697.9970844444442</v>
+      </c>
+      <c r="J20" s="57">
+        <f>I20-F20</f>
+        <v>202.69538055741759</v>
+      </c>
+      <c r="K20" s="58"/>
+    </row>
+    <row r="21" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="58"/>
+    </row>
+    <row r="22" spans="1:13" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A22" s="66">
+        <f>Estimate!A25</f>
+        <v>4</v>
+      </c>
+      <c r="B22" s="59" t="str">
+        <f>Estimate!B25</f>
+        <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications., RCC Grade M 20</v>
+      </c>
+      <c r="C22" s="56" t="str">
+        <f>Estimate!H27</f>
+        <v>m3</v>
+      </c>
+      <c r="D22" s="56">
+        <f>Estimate!G27</f>
+        <v>9.4087168546174933</v>
+      </c>
+      <c r="E22" s="56">
+        <f>Estimate!I27</f>
+        <v>11588.17</v>
+      </c>
+      <c r="F22" s="56">
+        <f>D22*E22</f>
+        <v>109029.8103931728</v>
+      </c>
+      <c r="G22" s="56">
+        <f>Valuation!G48</f>
+        <v>9.4094999999999995</v>
+      </c>
+      <c r="H22" s="56">
+        <f>Valuation!I48</f>
+        <v>11588.17</v>
+      </c>
+      <c r="I22" s="56">
+        <f>G22*H22</f>
+        <v>109038.88561499999</v>
+      </c>
+      <c r="J22" s="57">
+        <f>I22-F22</f>
+        <v>9.0752218271954916</v>
+      </c>
+      <c r="K22" s="58"/>
+    </row>
+    <row r="23" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="64" t="str">
+        <f>Estimate!B28</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56">
+        <f>Estimate!J28</f>
+        <v>11036.550947272171</v>
+      </c>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56">
+        <f>Valuation!J49</f>
+        <v>11037.469587300002</v>
+      </c>
+      <c r="J23" s="57">
+        <f>I23-F23</f>
+        <v>0.91864002783040632</v>
+      </c>
+      <c r="K23" s="58"/>
+    </row>
+    <row r="24" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
+      <c r="M24" s="89"/>
+    </row>
+    <row r="25" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="66">
+        <f>Estimate!A30</f>
+        <v>5</v>
+      </c>
+      <c r="B25" s="59" t="str">
+        <f>Estimate!B30</f>
+        <v>Provisional sum for lab test</v>
+      </c>
+      <c r="C25" s="56" t="str">
+        <f>Estimate!H30</f>
+        <v>PS</v>
+      </c>
+      <c r="D25" s="56">
+        <f>Estimate!G30</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="56">
+        <f>Estimate!I30</f>
+        <v>15000</v>
+      </c>
+      <c r="F25" s="56">
+        <f>D25*E25</f>
+        <v>15000</v>
+      </c>
+      <c r="G25" s="56">
+        <f>Valuation!G51</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="56">
+        <f>Valuation!I51</f>
+        <v>15000</v>
+      </c>
+      <c r="I25" s="56">
+        <f>G25*H25</f>
+        <v>15000</v>
+      </c>
+      <c r="J25" s="57">
+        <f>I25-F25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="58"/>
+    </row>
+    <row r="26" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="58"/>
+    </row>
+    <row r="27" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="66">
+        <f>Estimate!A32</f>
+        <v>6</v>
+      </c>
+      <c r="B27" s="60" t="str">
+        <f>Estimate!B32</f>
+        <v>Information board (सुचना पाटि)</v>
+      </c>
+      <c r="C27" s="56" t="str">
+        <f>Estimate!H32</f>
+        <v>no.</v>
+      </c>
+      <c r="D27" s="56">
+        <f>Estimate!G32</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="56">
+        <f>Estimate!I32</f>
+        <v>500</v>
+      </c>
+      <c r="F27" s="56">
+        <f>D27*E27</f>
+        <v>500</v>
+      </c>
+      <c r="G27" s="56">
+        <f>Valuation!G53</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="56">
+        <f>Valuation!I53</f>
+        <v>500</v>
+      </c>
+      <c r="I27" s="56">
+        <f>G27*H27</f>
+        <v>500</v>
+      </c>
+      <c r="J27" s="57">
+        <f>I27-F27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="58"/>
+    </row>
+    <row r="28" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="58"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62">
+        <f>SUM(F13:F27)</f>
+        <v>226120.14918209484</v>
+      </c>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62">
+        <f>SUM(I13:I27)</f>
+        <v>228081.1803271111</v>
+      </c>
+      <c r="J29" s="63">
+        <f>I29-F29</f>
+        <v>1961.0311450162553</v>
+      </c>
+      <c r="K29" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:J12"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:
+&amp;RApproved By:
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3804,117 +4569,116 @@
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="A2" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="A5" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
+      <c r="H7" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -3952,7 +4716,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="88">
+      <c r="A9" s="65">
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -3969,14 +4733,15 @@
       <c r="K9" s="48"/>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="50" t="s">
-        <v>55</v>
+      <c r="A10" s="65"/>
+      <c r="B10" s="50" t="str">
+        <f>Valuation!B10</f>
+        <v>Chainage 0+000</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="52" t="s">
-        <v>56</v>
+      <c r="E10" s="51" t="s">
+        <v>52</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -3986,25 +4751,28 @@
       <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="50" t="s">
-        <v>48</v>
+      <c r="A11" s="65"/>
+      <c r="B11" s="50" t="str">
+        <f>Valuation!B11</f>
+        <v>0+000 to 0+002</v>
       </c>
       <c r="C11" s="32">
         <v>1</v>
       </c>
       <c r="D11" s="33">
+        <f>'Field measurement'!C3</f>
         <v>2</v>
       </c>
-      <c r="E11" s="51">
-        <v>4.7249999999999996</v>
+      <c r="E11" s="33">
+        <f>'Field measurement'!E3</f>
+        <v>4.7</v>
       </c>
       <c r="F11" s="33">
         <v>0.15</v>
       </c>
       <c r="G11" s="33">
         <f>PRODUCT(C11:F11)</f>
-        <v>1.4174999999999998</v>
+        <v>1.41</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
@@ -4012,25 +4780,28 @@
       <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="50" t="s">
-        <v>47</v>
+      <c r="A12" s="65"/>
+      <c r="B12" s="50" t="str">
+        <f>Valuation!B12</f>
+        <v>0+002 to 0+004</v>
       </c>
       <c r="C12" s="32">
         <v>1</v>
       </c>
       <c r="D12" s="33">
+        <f>'Field measurement'!C4</f>
         <v>2</v>
       </c>
-      <c r="E12" s="51">
-        <v>4.8000000000000007</v>
+      <c r="E12" s="33">
+        <f>'Field measurement'!E4</f>
+        <v>4.7</v>
       </c>
       <c r="F12" s="33">
         <v>0.15</v>
       </c>
       <c r="G12" s="33">
         <f t="shared" ref="G12:G17" si="0">PRODUCT(C12:F12)</f>
-        <v>1.4400000000000002</v>
+        <v>1.41</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
@@ -4038,25 +4809,28 @@
       <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="50" t="s">
-        <v>49</v>
+      <c r="A13" s="65"/>
+      <c r="B13" s="50" t="str">
+        <f>Valuation!B13</f>
+        <v>0+004 to 0+006</v>
       </c>
       <c r="C13" s="32">
         <v>1</v>
       </c>
       <c r="D13" s="33">
+        <f>'Field measurement'!C5</f>
         <v>2</v>
       </c>
-      <c r="E13" s="51">
-        <v>4.71</v>
+      <c r="E13" s="33">
+        <f>'Field measurement'!E5</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F13" s="33">
         <v>0.15</v>
       </c>
       <c r="G13" s="33">
         <f t="shared" si="0"/>
-        <v>1.413</v>
+        <v>1.38</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
@@ -4064,25 +4838,28 @@
       <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="50" t="s">
-        <v>50</v>
+      <c r="A14" s="65"/>
+      <c r="B14" s="50" t="str">
+        <f>Valuation!B14</f>
+        <v>0+006 to 0+008</v>
       </c>
       <c r="C14" s="32">
         <v>1</v>
       </c>
       <c r="D14" s="33">
+        <f>'Field measurement'!C6</f>
         <v>2</v>
       </c>
-      <c r="E14" s="51">
-        <v>4.57</v>
+      <c r="E14" s="33">
+        <f>'Field measurement'!E6</f>
+        <v>4.5</v>
       </c>
       <c r="F14" s="33">
         <v>0.15</v>
       </c>
       <c r="G14" s="33">
         <f t="shared" si="0"/>
-        <v>1.371</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
@@ -4090,25 +4867,28 @@
       <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
-      <c r="B15" s="50" t="s">
-        <v>51</v>
+      <c r="A15" s="65"/>
+      <c r="B15" s="50" t="str">
+        <f>Valuation!B15</f>
+        <v>0+008 to 0+010</v>
       </c>
       <c r="C15" s="32">
         <v>1</v>
       </c>
       <c r="D15" s="33">
+        <f>'Field measurement'!C7</f>
         <v>2</v>
       </c>
-      <c r="E15" s="51">
-        <v>4.6150000000000002</v>
+      <c r="E15" s="33">
+        <f>'Field measurement'!E7</f>
+        <v>4.5</v>
       </c>
       <c r="F15" s="33">
         <v>0.15</v>
       </c>
       <c r="G15" s="33">
         <f t="shared" si="0"/>
-        <v>1.3845000000000001</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
@@ -4116,25 +4896,28 @@
       <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="50" t="s">
-        <v>52</v>
+      <c r="A16" s="65"/>
+      <c r="B16" s="50" t="str">
+        <f>Valuation!B16</f>
+        <v>0+010 to 0+012</v>
       </c>
       <c r="C16" s="32">
         <v>1</v>
       </c>
       <c r="D16" s="33">
+        <f>'Field measurement'!C8</f>
         <v>2</v>
       </c>
-      <c r="E16" s="51">
-        <v>4.53</v>
+      <c r="E16" s="33">
+        <f>'Field measurement'!E8</f>
+        <v>4.45</v>
       </c>
       <c r="F16" s="33">
         <v>0.15</v>
       </c>
       <c r="G16" s="33">
         <f t="shared" si="0"/>
-        <v>1.359</v>
+        <v>1.335</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
@@ -4142,25 +4925,28 @@
       <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="50" t="s">
-        <v>53</v>
+      <c r="A17" s="65"/>
+      <c r="B17" s="50" t="str">
+        <f>Valuation!B17</f>
+        <v>0+012 to 0+013.8</v>
       </c>
       <c r="C17" s="32">
         <v>1</v>
       </c>
       <c r="D17" s="33">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E17" s="51">
-        <v>4.3949999999999996</v>
+        <f>'Field measurement'!C9</f>
+        <v>1.8</v>
+      </c>
+      <c r="E17" s="33">
+        <f>'Field measurement'!E9</f>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F17" s="33">
         <v>0.15</v>
       </c>
       <c r="G17" s="33">
         <f t="shared" si="0"/>
-        <v>1.3514624999999998</v>
+        <v>1.1744999999999999</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
@@ -4178,7 +4964,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14">
         <f>SUM(G11:G17)</f>
-        <v>9.7364625000000018</v>
+        <v>9.4094999999999995</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>23</v>
@@ -4188,7 +4974,7 @@
       </c>
       <c r="J18" s="16">
         <f>G18*I18</f>
-        <v>629.2675713750001</v>
+        <v>608.13598499999989</v>
       </c>
       <c r="K18" s="13"/>
       <c r="M18" s="17"/>
@@ -4213,7 +4999,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="16">
         <f>0.13*G18*19284/360</f>
-        <v>67.801479362500004</v>
+        <v>65.524621499999995</v>
       </c>
       <c r="K19" s="13"/>
       <c r="M19" s="17"/>
@@ -4225,7 +5011,7 @@
       <c r="S19" s="17"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
@@ -4238,7 +5024,7 @@
       <c r="K20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="88">
+      <c r="A21" s="65">
         <v>2</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -4255,14 +5041,15 @@
       <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="50" t="s">
-        <v>55</v>
+      <c r="A22" s="65"/>
+      <c r="B22" s="50" t="str">
+        <f>B10</f>
+        <v>Chainage 0+000</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="33"/>
-      <c r="E22" s="52" t="s">
-        <v>56</v>
+      <c r="E22" s="51" t="s">
+        <v>52</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -4272,25 +5059,28 @@
       <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="88"/>
-      <c r="B23" s="50" t="s">
-        <v>48</v>
+      <c r="A23" s="65"/>
+      <c r="B23" s="50" t="str">
+        <f t="shared" ref="B23:B29" si="1">B11</f>
+        <v>0+000 to 0+002</v>
       </c>
       <c r="C23" s="32">
         <v>1</v>
       </c>
       <c r="D23" s="33">
+        <f>'Field measurement'!C3</f>
         <v>2</v>
       </c>
-      <c r="E23" s="51">
-        <v>4.7249999999999996</v>
+      <c r="E23" s="33">
+        <f>'Field measurement'!E3</f>
+        <v>4.7</v>
       </c>
       <c r="F23" s="33">
         <v>0.15</v>
       </c>
       <c r="G23" s="33">
         <f>PRODUCT(C23:F23)</f>
-        <v>1.4174999999999998</v>
+        <v>1.41</v>
       </c>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
@@ -4298,25 +5088,28 @@
       <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="88"/>
-      <c r="B24" s="50" t="s">
-        <v>47</v>
+      <c r="A24" s="65"/>
+      <c r="B24" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>0+002 to 0+004</v>
       </c>
       <c r="C24" s="32">
         <v>1</v>
       </c>
       <c r="D24" s="33">
+        <f>'Field measurement'!C4</f>
         <v>2</v>
       </c>
-      <c r="E24" s="51">
-        <v>4.8000000000000007</v>
+      <c r="E24" s="33">
+        <f>'Field measurement'!E4</f>
+        <v>4.7</v>
       </c>
       <c r="F24" s="33">
         <v>0.15</v>
       </c>
       <c r="G24" s="33">
-        <f t="shared" ref="G24:G29" si="1">PRODUCT(C24:F24)</f>
-        <v>1.4400000000000002</v>
+        <f t="shared" ref="G24:G29" si="2">PRODUCT(C24:F24)</f>
+        <v>1.41</v>
       </c>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
@@ -4324,25 +5117,28 @@
       <c r="K24" s="32"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="88"/>
-      <c r="B25" s="50" t="s">
-        <v>49</v>
+      <c r="A25" s="65"/>
+      <c r="B25" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>0+004 to 0+006</v>
       </c>
       <c r="C25" s="32">
         <v>1</v>
       </c>
       <c r="D25" s="33">
+        <f>'Field measurement'!C5</f>
         <v>2</v>
       </c>
-      <c r="E25" s="51">
-        <v>4.71</v>
+      <c r="E25" s="33">
+        <f>'Field measurement'!E5</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F25" s="33">
         <v>0.15</v>
       </c>
       <c r="G25" s="33">
-        <f t="shared" si="1"/>
-        <v>1.413</v>
+        <f t="shared" si="2"/>
+        <v>1.38</v>
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
@@ -4350,25 +5146,28 @@
       <c r="K25" s="32"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="88"/>
-      <c r="B26" s="50" t="s">
-        <v>50</v>
+      <c r="A26" s="65"/>
+      <c r="B26" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>0+006 to 0+008</v>
       </c>
       <c r="C26" s="32">
         <v>1</v>
       </c>
       <c r="D26" s="33">
+        <f>'Field measurement'!C6</f>
         <v>2</v>
       </c>
-      <c r="E26" s="51">
-        <v>4.57</v>
+      <c r="E26" s="33">
+        <f>'Field measurement'!E6</f>
+        <v>4.5</v>
       </c>
       <c r="F26" s="33">
         <v>0.15</v>
       </c>
       <c r="G26" s="33">
-        <f t="shared" si="1"/>
-        <v>1.371</v>
+        <f t="shared" si="2"/>
+        <v>1.3499999999999999</v>
       </c>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
@@ -4376,25 +5175,28 @@
       <c r="K26" s="32"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="88"/>
-      <c r="B27" s="50" t="s">
-        <v>51</v>
+      <c r="A27" s="65"/>
+      <c r="B27" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>0+008 to 0+010</v>
       </c>
       <c r="C27" s="32">
         <v>1</v>
       </c>
       <c r="D27" s="33">
+        <f>'Field measurement'!C7</f>
         <v>2</v>
       </c>
-      <c r="E27" s="51">
-        <v>4.6150000000000002</v>
+      <c r="E27" s="33">
+        <f>'Field measurement'!E7</f>
+        <v>4.5</v>
       </c>
       <c r="F27" s="33">
         <v>0.15</v>
       </c>
       <c r="G27" s="33">
-        <f t="shared" si="1"/>
-        <v>1.3845000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1.3499999999999999</v>
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
@@ -4402,25 +5204,28 @@
       <c r="K27" s="32"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="88"/>
-      <c r="B28" s="50" t="s">
-        <v>52</v>
+      <c r="A28" s="65"/>
+      <c r="B28" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>0+010 to 0+012</v>
       </c>
       <c r="C28" s="32">
         <v>1</v>
       </c>
       <c r="D28" s="33">
+        <f>'Field measurement'!C8</f>
         <v>2</v>
       </c>
-      <c r="E28" s="51">
-        <v>4.53</v>
+      <c r="E28" s="33">
+        <f>'Field measurement'!E8</f>
+        <v>4.45</v>
       </c>
       <c r="F28" s="33">
         <v>0.15</v>
       </c>
       <c r="G28" s="33">
-        <f t="shared" si="1"/>
-        <v>1.359</v>
+        <f t="shared" si="2"/>
+        <v>1.335</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
@@ -4428,25 +5233,28 @@
       <c r="K28" s="32"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="88"/>
-      <c r="B29" s="50" t="s">
-        <v>53</v>
+      <c r="A29" s="65"/>
+      <c r="B29" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>0+012 to 0+013.8</v>
       </c>
       <c r="C29" s="32">
         <v>1</v>
       </c>
       <c r="D29" s="33">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E29" s="51">
-        <v>4.3949999999999996</v>
+        <f>'Field measurement'!C9</f>
+        <v>1.8</v>
+      </c>
+      <c r="E29" s="33">
+        <f>'Field measurement'!E9</f>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F29" s="33">
         <v>0.15</v>
       </c>
       <c r="G29" s="33">
-        <f t="shared" si="1"/>
-        <v>1.3514624999999998</v>
+        <f t="shared" si="2"/>
+        <v>1.1744999999999999</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -4464,7 +5272,7 @@
       <c r="F30" s="24"/>
       <c r="G30" s="25">
         <f>SUM(G22:G29)</f>
-        <v>9.7364625000000018</v>
+        <v>9.4094999999999995</v>
       </c>
       <c r="H30" s="25" t="s">
         <v>23</v>
@@ -4474,7 +5282,7 @@
       </c>
       <c r="J30" s="26">
         <f>G30*I30</f>
-        <v>44413.165787625003</v>
+        <v>42921.716534999992</v>
       </c>
       <c r="K30" s="19"/>
     </row>
@@ -4492,12 +5300,12 @@
       <c r="I31" s="24"/>
       <c r="J31" s="27">
         <f>0.13*G30*(15452.6/5)</f>
-        <v>3911.7951711150008</v>
+        <v>3780.4322322000003</v>
       </c>
       <c r="K31" s="19"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="88"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
@@ -4545,11 +5353,11 @@
       </c>
       <c r="C34" s="23">
         <f>TRUNC(D35/(0.15),0)</f>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="24">
         <f>AVERAGE(E23:E29)</f>
-        <v>4.6207142857142856</v>
+        <v>4.5428571428571427</v>
       </c>
       <c r="E34" s="24">
         <f>8*8/162</f>
@@ -4557,11 +5365,11 @@
       </c>
       <c r="F34" s="24">
         <f>PRODUCT(C34:E34)</f>
-        <v>169.76846560846559</v>
+        <v>163.31851851851849</v>
       </c>
       <c r="G34" s="24">
         <f>F34/1000</f>
-        <v>0.16976846560846559</v>
+        <v>0.16331851851851847</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -4569,7 +5377,7 @@
       <c r="K34" s="19"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="32"/>
       <c r="C35" s="23">
         <f>TRUNC(D34/(0.15),0)</f>
@@ -4577,7 +5385,7 @@
       </c>
       <c r="D35" s="33">
         <f>SUM(D23:D29)-0.1</f>
-        <v>13.950000000000001</v>
+        <v>13.700000000000001</v>
       </c>
       <c r="E35" s="24">
         <f>8*8/162</f>
@@ -4585,11 +5393,11 @@
       </c>
       <c r="F35" s="24">
         <f>PRODUCT(C35:E35)</f>
-        <v>165.33333333333334</v>
+        <v>162.37037037037038</v>
       </c>
       <c r="G35" s="24">
         <f>F35/1000</f>
-        <v>0.16533333333333333</v>
+        <v>0.16237037037037039</v>
       </c>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -4609,7 +5417,7 @@
       <c r="F36" s="24"/>
       <c r="G36" s="25">
         <f>SUM(G34:G35)</f>
-        <v>0.33510179894179892</v>
+        <v>0.32568888888888886</v>
       </c>
       <c r="H36" s="25" t="s">
         <v>30</v>
@@ -4619,7 +5427,7 @@
       </c>
       <c r="J36" s="26">
         <f>G36*I36</f>
-        <v>41599.537320634918</v>
+        <v>40431.018666666663</v>
       </c>
       <c r="K36" s="19"/>
     </row>
@@ -4637,22 +5445,22 @@
       <c r="I37" s="24"/>
       <c r="J37" s="27">
         <f>0.13*G36*110960</f>
-        <v>4833.7764293756609</v>
+        <v>4697.9970844444442</v>
       </c>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="88"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="19"/>
     </row>
     <row r="39" spans="1:14" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
@@ -4672,14 +5480,15 @@
       <c r="K39" s="31"/>
     </row>
     <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="88"/>
-      <c r="B40" s="50" t="s">
-        <v>55</v>
+      <c r="A40" s="65"/>
+      <c r="B40" s="50" t="str">
+        <f>B10</f>
+        <v>Chainage 0+000</v>
       </c>
       <c r="C40" s="32"/>
       <c r="D40" s="33"/>
-      <c r="E40" s="52" t="s">
-        <v>56</v>
+      <c r="E40" s="51" t="s">
+        <v>52</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -4689,25 +5498,28 @@
       <c r="K40" s="32"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="88"/>
-      <c r="B41" s="50" t="s">
-        <v>48</v>
+      <c r="A41" s="65"/>
+      <c r="B41" s="50" t="str">
+        <f t="shared" ref="B41:B47" si="3">B11</f>
+        <v>0+000 to 0+002</v>
       </c>
       <c r="C41" s="32">
         <v>1</v>
       </c>
       <c r="D41" s="33">
+        <f>'Field measurement'!C3</f>
         <v>2</v>
       </c>
-      <c r="E41" s="51">
-        <v>4.7249999999999996</v>
+      <c r="E41" s="33">
+        <f>'Field measurement'!E3</f>
+        <v>4.7</v>
       </c>
       <c r="F41" s="33">
         <v>0.15</v>
       </c>
       <c r="G41" s="33">
         <f>PRODUCT(C41:F41)</f>
-        <v>1.4174999999999998</v>
+        <v>1.41</v>
       </c>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -4715,25 +5527,28 @@
       <c r="K41" s="32"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="88"/>
-      <c r="B42" s="50" t="s">
-        <v>47</v>
+      <c r="A42" s="65"/>
+      <c r="B42" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>0+002 to 0+004</v>
       </c>
       <c r="C42" s="32">
         <v>1</v>
       </c>
       <c r="D42" s="33">
+        <f>'Field measurement'!C4</f>
         <v>2</v>
       </c>
-      <c r="E42" s="51">
-        <v>4.8000000000000007</v>
+      <c r="E42" s="33">
+        <f>'Field measurement'!E4</f>
+        <v>4.7</v>
       </c>
       <c r="F42" s="33">
         <v>0.15</v>
       </c>
       <c r="G42" s="33">
-        <f t="shared" ref="G42:G47" si="2">PRODUCT(C42:F42)</f>
-        <v>1.4400000000000002</v>
+        <f t="shared" ref="G42:G47" si="4">PRODUCT(C42:F42)</f>
+        <v>1.41</v>
       </c>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
@@ -4741,25 +5556,28 @@
       <c r="K42" s="32"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="88"/>
-      <c r="B43" s="50" t="s">
-        <v>49</v>
+      <c r="A43" s="65"/>
+      <c r="B43" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>0+004 to 0+006</v>
       </c>
       <c r="C43" s="32">
         <v>1</v>
       </c>
       <c r="D43" s="33">
+        <f>'Field measurement'!C5</f>
         <v>2</v>
       </c>
-      <c r="E43" s="51">
-        <v>4.71</v>
+      <c r="E43" s="33">
+        <f>'Field measurement'!E5</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F43" s="33">
         <v>0.15</v>
       </c>
       <c r="G43" s="33">
-        <f t="shared" si="2"/>
-        <v>1.413</v>
+        <f t="shared" si="4"/>
+        <v>1.38</v>
       </c>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
@@ -4767,25 +5585,28 @@
       <c r="K43" s="32"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="88"/>
-      <c r="B44" s="50" t="s">
-        <v>50</v>
+      <c r="A44" s="65"/>
+      <c r="B44" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>0+006 to 0+008</v>
       </c>
       <c r="C44" s="32">
         <v>1</v>
       </c>
       <c r="D44" s="33">
+        <f>'Field measurement'!C6</f>
         <v>2</v>
       </c>
-      <c r="E44" s="51">
-        <v>4.57</v>
+      <c r="E44" s="33">
+        <f>'Field measurement'!E6</f>
+        <v>4.5</v>
       </c>
       <c r="F44" s="33">
         <v>0.15</v>
       </c>
       <c r="G44" s="33">
-        <f t="shared" si="2"/>
-        <v>1.371</v>
+        <f t="shared" si="4"/>
+        <v>1.3499999999999999</v>
       </c>
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
@@ -4793,25 +5614,28 @@
       <c r="K44" s="32"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="88"/>
-      <c r="B45" s="50" t="s">
-        <v>51</v>
+      <c r="A45" s="65"/>
+      <c r="B45" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>0+008 to 0+010</v>
       </c>
       <c r="C45" s="32">
         <v>1</v>
       </c>
       <c r="D45" s="33">
+        <f>'Field measurement'!C7</f>
         <v>2</v>
       </c>
-      <c r="E45" s="51">
-        <v>4.6150000000000002</v>
+      <c r="E45" s="33">
+        <f>'Field measurement'!E7</f>
+        <v>4.5</v>
       </c>
       <c r="F45" s="33">
         <v>0.15</v>
       </c>
       <c r="G45" s="33">
-        <f t="shared" si="2"/>
-        <v>1.3845000000000001</v>
+        <f t="shared" si="4"/>
+        <v>1.3499999999999999</v>
       </c>
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
@@ -4819,25 +5643,28 @@
       <c r="K45" s="32"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="88"/>
-      <c r="B46" s="50" t="s">
-        <v>52</v>
+      <c r="A46" s="65"/>
+      <c r="B46" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>0+010 to 0+012</v>
       </c>
       <c r="C46" s="32">
         <v>1</v>
       </c>
       <c r="D46" s="33">
+        <f>'Field measurement'!C8</f>
         <v>2</v>
       </c>
-      <c r="E46" s="51">
-        <v>4.53</v>
+      <c r="E46" s="33">
+        <f>'Field measurement'!E8</f>
+        <v>4.45</v>
       </c>
       <c r="F46" s="33">
         <v>0.15</v>
       </c>
       <c r="G46" s="33">
-        <f t="shared" si="2"/>
-        <v>1.359</v>
+        <f t="shared" si="4"/>
+        <v>1.335</v>
       </c>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
@@ -4845,25 +5672,28 @@
       <c r="K46" s="32"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="88"/>
-      <c r="B47" s="50" t="s">
-        <v>53</v>
+      <c r="A47" s="65"/>
+      <c r="B47" s="50" t="str">
+        <f t="shared" si="3"/>
+        <v>0+012 to 0+013.8</v>
       </c>
       <c r="C47" s="32">
         <v>1</v>
       </c>
       <c r="D47" s="33">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E47" s="51">
-        <v>4.3949999999999996</v>
+        <f>'Field measurement'!C9</f>
+        <v>1.8</v>
+      </c>
+      <c r="E47" s="33">
+        <f>'Field measurement'!E9</f>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F47" s="33">
         <v>0.15</v>
       </c>
       <c r="G47" s="33">
-        <f t="shared" si="2"/>
-        <v>1.3514624999999998</v>
+        <f t="shared" si="4"/>
+        <v>1.1744999999999999</v>
       </c>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
@@ -4881,7 +5711,7 @@
       <c r="F48" s="24"/>
       <c r="G48" s="25">
         <f>SUM(G41:G47)</f>
-        <v>9.7364625000000018</v>
+        <v>9.4094999999999995</v>
       </c>
       <c r="H48" s="25" t="s">
         <v>23</v>
@@ -4891,7 +5721,7 @@
       </c>
       <c r="J48" s="26">
         <f>G48*I48</f>
-        <v>112827.78264862503</v>
+        <v>109038.88561499999</v>
       </c>
       <c r="K48" s="19"/>
     </row>
@@ -4909,7 +5739,7 @@
       <c r="I49" s="24"/>
       <c r="J49" s="27">
         <f>0.13*G48*((128662.2+6685.5)/15)</f>
-        <v>11421.000981097503</v>
+        <v>11037.469587300002</v>
       </c>
       <c r="K49" s="19"/>
     </row>
@@ -4940,7 +5770,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="36">
-        <f t="shared" ref="G51" si="3">PRODUCT(C51:F51)</f>
+        <f t="shared" ref="G51" si="5">PRODUCT(C51:F51)</f>
         <v>1</v>
       </c>
       <c r="H51" s="15" t="s">
@@ -4996,7 +5826,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="36">
-        <f t="shared" ref="G53" si="4">PRODUCT(C53:F53)</f>
+        <f t="shared" ref="G53" si="6">PRODUCT(C53:F53)</f>
         <v>1</v>
       </c>
       <c r="H53" s="15" t="s">
@@ -5018,30 +5848,23 @@
       <c r="R53" s="17"/>
       <c r="S53" s="17"/>
     </row>
-    <row r="54" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="13"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="28"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="19"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" s="47"/>
       <c r="D55" s="20"/>
@@ -5052,20 +5875,20 @@
       <c r="I55" s="16"/>
       <c r="J55" s="16">
         <f>SUM(J18:J53)</f>
-        <v>235204.12738921063</v>
+        <v>228081.1803271111</v>
       </c>
       <c r="K55" s="19"/>
     </row>
     <row r="57" spans="1:19" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37"/>
       <c r="B57" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="53">
+        <v>69</v>
+      </c>
+      <c r="C57" s="73">
         <f>J55</f>
-        <v>235204.12738921063</v>
-      </c>
-      <c r="D57" s="53"/>
+        <v>228081.1803271111</v>
+      </c>
+      <c r="D57" s="73"/>
       <c r="E57" s="21">
         <v>100</v>
       </c>
@@ -5081,10 +5904,10 @@
       <c r="B58" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="56">
+      <c r="C58" s="76">
         <v>200000</v>
       </c>
-      <c r="D58" s="56"/>
+      <c r="D58" s="76"/>
       <c r="E58" s="21"/>
       <c r="F58" s="44"/>
       <c r="G58" s="45"/>
@@ -5098,14 +5921,14 @@
       <c r="B59" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="56">
+      <c r="C59" s="76">
         <f>C58-C61-C62</f>
         <v>190000</v>
       </c>
-      <c r="D59" s="56"/>
+      <c r="D59" s="76"/>
       <c r="E59" s="21">
         <f>C59/C57*100</f>
-        <v>80.78089534780662</v>
+        <v>83.303672721924897</v>
       </c>
       <c r="F59" s="44"/>
       <c r="G59" s="45"/>
@@ -5119,14 +5942,14 @@
       <c r="B60" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="53">
+      <c r="C60" s="73">
         <f>C57-C59</f>
-        <v>45204.127389210626</v>
-      </c>
-      <c r="D60" s="53"/>
+        <v>38081.180327111098</v>
+      </c>
+      <c r="D60" s="73"/>
       <c r="E60" s="21">
         <f>100-E59</f>
-        <v>19.21910465219338</v>
+        <v>16.696327278075103</v>
       </c>
       <c r="F60" s="44"/>
       <c r="G60" s="45"/>
@@ -5140,11 +5963,11 @@
       <c r="B61" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="53">
+      <c r="C61" s="73">
         <f>C58*0.03</f>
         <v>6000</v>
       </c>
-      <c r="D61" s="53"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="21">
         <v>3</v>
       </c>
@@ -5158,13 +5981,13 @@
     <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="53">
+        <v>72</v>
+      </c>
+      <c r="C62" s="73">
         <f>C58*0.02</f>
         <v>4000</v>
       </c>
-      <c r="D62" s="53"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="21">
         <v>2</v>
       </c>
@@ -5194,709 +6017,9 @@
     <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-    </row>
-    <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67">
-        <f>F29</f>
-        <v>226120.14918209484</v>
-      </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67">
-        <f>I29</f>
-        <v>235204.12738921063</v>
-      </c>
-      <c r="K6" s="68"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="I7" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="str">
-        <f>Estimate!A6</f>
-        <v>Project:- बिन्ध्यबासिनी मन्दिर जाने सडक ढलान</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="I8" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="str">
-        <f>Estimate!A7</f>
-        <v>Location:- Shankharapur Municipality 9</v>
-      </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="I9" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="77" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="75"/>
-      <c r="K12" s="77"/>
-    </row>
-    <row r="13" spans="1:11" s="18" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="89">
-        <f>Estimate!A9</f>
-        <v>1</v>
-      </c>
-      <c r="B13" s="82" t="str">
-        <f>Estimate!B9</f>
-        <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</v>
-      </c>
-      <c r="C13" s="79" t="str">
-        <f>Estimate!H11</f>
-        <v>m3</v>
-      </c>
-      <c r="D13" s="79">
-        <f>Estimate!G11</f>
-        <v>9.4087168546174933</v>
-      </c>
-      <c r="E13" s="79">
-        <f>Estimate!I11</f>
-        <v>64.63</v>
-      </c>
-      <c r="F13" s="79">
-        <f>D13*E13</f>
-        <v>608.08537031392859</v>
-      </c>
-      <c r="G13" s="79">
-        <f>Valuation!G18</f>
-        <v>9.7364625000000018</v>
-      </c>
-      <c r="H13" s="79">
-        <f>Valuation!I18</f>
-        <v>64.63</v>
-      </c>
-      <c r="I13" s="79">
-        <f>G13*H13</f>
-        <v>629.2675713750001</v>
-      </c>
-      <c r="J13" s="80">
-        <f>I13-F13</f>
-        <v>21.18220106107151</v>
-      </c>
-      <c r="K13" s="81"/>
-    </row>
-    <row r="14" spans="1:11" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="87" t="str">
-        <f>Estimate!B12</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79">
-        <f>Estimate!J12</f>
-        <v>65.519167936604688</v>
-      </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79">
-        <f>Valuation!J19</f>
-        <v>67.801479362500004</v>
-      </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
-    </row>
-    <row r="15" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81"/>
-    </row>
-    <row r="16" spans="1:11" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="89">
-        <f>Estimate!A14</f>
-        <v>2</v>
-      </c>
-      <c r="B16" s="82" t="str">
-        <f>Estimate!B14</f>
-        <v>Providing and laying of hand pack Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</v>
-      </c>
-      <c r="C16" s="79" t="str">
-        <f>Estimate!H16</f>
-        <v>m3</v>
-      </c>
-      <c r="D16" s="79">
-        <f>Estimate!G16</f>
-        <v>9.4087168546174933</v>
-      </c>
-      <c r="E16" s="79">
-        <f>Estimate!I16</f>
-        <v>4561.53</v>
-      </c>
-      <c r="F16" s="79">
-        <f>D16*E16</f>
-        <v>42918.144193843335</v>
-      </c>
-      <c r="G16" s="79">
-        <f>Valuation!G30</f>
-        <v>9.7364625000000018</v>
-      </c>
-      <c r="H16" s="79">
-        <f>Valuation!I30</f>
-        <v>4561.53</v>
-      </c>
-      <c r="I16" s="79">
-        <f>G16*H16</f>
-        <v>44413.165787625003</v>
-      </c>
-      <c r="J16" s="80">
-        <f>I16-F16</f>
-        <v>1495.0215937816683</v>
-      </c>
-      <c r="K16" s="81"/>
-    </row>
-    <row r="17" spans="1:11" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="87" t="str">
-        <f>Estimate!B17</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79">
-        <f>Estimate!J17</f>
-        <v>3780.1175897592188</v>
-      </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79">
-        <f>Valuation!J31</f>
-        <v>3911.7951711150008</v>
-      </c>
-      <c r="J17" s="80"/>
-      <c r="K17" s="81"/>
-    </row>
-    <row r="18" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="81"/>
-    </row>
-    <row r="19" spans="1:11" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="89">
-        <f>Estimate!A19</f>
-        <v>3</v>
-      </c>
-      <c r="B19" s="82" t="str">
-        <f>Estimate!B19</f>
-        <v>Providing and laying , fitting and placing HYSD bar reinforcement in sub-structure complete as per Drawing and Technical Specifications</v>
-      </c>
-      <c r="C19" s="79" t="str">
-        <f>Estimate!H22</f>
-        <v>MT</v>
-      </c>
-      <c r="D19" s="79">
-        <f>Estimate!G22</f>
-        <v>0.31163702123336379</v>
-      </c>
-      <c r="E19" s="79">
-        <f>Estimate!I22</f>
-        <v>124140</v>
-      </c>
-      <c r="F19" s="79">
-        <f>D19*E19</f>
-        <v>38686.619815909784</v>
-      </c>
-      <c r="G19" s="79">
-        <f>Valuation!G36</f>
-        <v>0.33510179894179892</v>
-      </c>
-      <c r="H19" s="79">
-        <f>Valuation!I36</f>
-        <v>124140</v>
-      </c>
-      <c r="I19" s="79">
-        <f>G19*H19</f>
-        <v>41599.537320634918</v>
-      </c>
-      <c r="J19" s="80">
-        <f>I19-F19</f>
-        <v>2912.9175047251338</v>
-      </c>
-      <c r="K19" s="81"/>
-    </row>
-    <row r="20" spans="1:11" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
-      <c r="B20" s="87" t="str">
-        <f>Estimate!B23</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79">
-        <f>Estimate!J23</f>
-        <v>4495.3017038870266</v>
-      </c>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79">
-        <f>Valuation!J37</f>
-        <v>4833.7764293756609</v>
-      </c>
-      <c r="J20" s="80"/>
-      <c r="K20" s="81"/>
-    </row>
-    <row r="21" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="81"/>
-    </row>
-    <row r="22" spans="1:11" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" s="89">
-        <f>Estimate!A25</f>
-        <v>4</v>
-      </c>
-      <c r="B22" s="82" t="str">
-        <f>Estimate!B25</f>
-        <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications., RCC Grade M 20</v>
-      </c>
-      <c r="C22" s="79" t="str">
-        <f>Estimate!H27</f>
-        <v>m3</v>
-      </c>
-      <c r="D22" s="79">
-        <f>Estimate!G27</f>
-        <v>9.4087168546174933</v>
-      </c>
-      <c r="E22" s="79">
-        <f>Estimate!I27</f>
-        <v>11588.17</v>
-      </c>
-      <c r="F22" s="79">
-        <f>D22*E22</f>
-        <v>109029.8103931728</v>
-      </c>
-      <c r="G22" s="79">
-        <f>Valuation!G48</f>
-        <v>9.7364625000000018</v>
-      </c>
-      <c r="H22" s="79">
-        <f>Valuation!I48</f>
-        <v>11588.17</v>
-      </c>
-      <c r="I22" s="79">
-        <f>G22*H22</f>
-        <v>112827.78264862503</v>
-      </c>
-      <c r="J22" s="80">
-        <f>I22-F22</f>
-        <v>3797.9722554522305</v>
-      </c>
-      <c r="K22" s="81"/>
-    </row>
-    <row r="23" spans="1:11" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
-      <c r="B23" s="87" t="str">
-        <f>Estimate!B28</f>
-        <v>VAT calculation</v>
-      </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79">
-        <f>Estimate!J28</f>
-        <v>11036.550947272171</v>
-      </c>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79">
-        <f>Valuation!J49</f>
-        <v>11421.000981097503</v>
-      </c>
-      <c r="J23" s="80"/>
-      <c r="K23" s="81"/>
-    </row>
-    <row r="24" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="81"/>
-    </row>
-    <row r="25" spans="1:11" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="89">
-        <f>Estimate!A30</f>
-        <v>5</v>
-      </c>
-      <c r="B25" s="82" t="str">
-        <f>Estimate!B30</f>
-        <v>Provisional sum for lab test</v>
-      </c>
-      <c r="C25" s="79" t="str">
-        <f>Estimate!H30</f>
-        <v>PS</v>
-      </c>
-      <c r="D25" s="79">
-        <f>Estimate!G30</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="79">
-        <f>Estimate!I30</f>
-        <v>15000</v>
-      </c>
-      <c r="F25" s="79">
-        <f>D25*E25</f>
-        <v>15000</v>
-      </c>
-      <c r="G25" s="79">
-        <f>Valuation!G51</f>
-        <v>1</v>
-      </c>
-      <c r="H25" s="79">
-        <f>Valuation!I51</f>
-        <v>15000</v>
-      </c>
-      <c r="I25" s="79">
-        <f>G25*H25</f>
-        <v>15000</v>
-      </c>
-      <c r="J25" s="80">
-        <f>I25-F25</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="81"/>
-    </row>
-    <row r="26" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="81"/>
-    </row>
-    <row r="27" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89">
-        <f>Estimate!A32</f>
-        <v>6</v>
-      </c>
-      <c r="B27" s="83" t="str">
-        <f>Estimate!B32</f>
-        <v>Information board (सुचना पाटि)</v>
-      </c>
-      <c r="C27" s="79" t="str">
-        <f>Estimate!H32</f>
-        <v>no.</v>
-      </c>
-      <c r="D27" s="79">
-        <f>Estimate!G32</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="79">
-        <f>Estimate!I32</f>
-        <v>500</v>
-      </c>
-      <c r="F27" s="79">
-        <f>D27*E27</f>
-        <v>500</v>
-      </c>
-      <c r="G27" s="79">
-        <f>Valuation!G53</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="79">
-        <f>Valuation!I53</f>
-        <v>500</v>
-      </c>
-      <c r="I27" s="79">
-        <f>G27*H27</f>
-        <v>500</v>
-      </c>
-      <c r="J27" s="80">
-        <f>I27-F27</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="81"/>
-    </row>
-    <row r="28" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="81"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85">
-        <f>SUM(F13:F27)</f>
-        <v>226120.14918209484</v>
-      </c>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85">
-        <f>SUM(I13:I27)</f>
-        <v>235204.12738921063</v>
-      </c>
-      <c r="J29" s="86">
-        <f>I29-F29</f>
-        <v>9083.9782071157824</v>
-      </c>
-      <c r="K29" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter xml:space="preserve">&amp;LPrepared By:
-&amp;CChecked By:
-&amp;RApproved By:
-</oddFooter>
+    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/ofc/estimates/बिन्ध्यबासिनी मन्दिर जाने सडक ढलान/v.xlsx
+++ b/ofc/estimates/बिन्ध्यबासिनी मन्दिर जाने सडक ढलान/v.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">measure!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Valuation!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">WCR!$A$1:$K$29</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">measure!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Valuation!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">WCR!$1:$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -597,23 +599,8 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -625,6 +612,51 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -633,36 +665,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1324,113 +1326,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:19" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="A2" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2070,11 +2072,11 @@
       <c r="B36" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="73">
+      <c r="C36" s="68">
         <f>J34</f>
         <v>226120.14918209484</v>
       </c>
-      <c r="D36" s="73"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="21">
         <v>100</v>
       </c>
@@ -2090,10 +2092,10 @@
       <c r="B37" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="76">
+      <c r="C37" s="71">
         <v>200000</v>
       </c>
-      <c r="D37" s="76"/>
+      <c r="D37" s="71"/>
       <c r="E37" s="21"/>
       <c r="F37" s="44"/>
       <c r="G37" s="45"/>
@@ -2107,11 +2109,11 @@
       <c r="B38" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="76">
+      <c r="C38" s="71">
         <f>C37-C40-C41</f>
         <v>190000</v>
       </c>
-      <c r="D38" s="76"/>
+      <c r="D38" s="71"/>
       <c r="E38" s="21">
         <f>C38/C36*100</f>
         <v>84.026125352939147</v>
@@ -2128,11 +2130,11 @@
       <c r="B39" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="68">
         <f>C36-C38</f>
         <v>36120.149182094843</v>
       </c>
-      <c r="D39" s="73"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="21">
         <f>100-E38</f>
         <v>15.973874647060853</v>
@@ -2149,11 +2151,11 @@
       <c r="B40" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="73">
+      <c r="C40" s="68">
         <f>C37*0.03</f>
         <v>6000</v>
       </c>
-      <c r="D40" s="73"/>
+      <c r="D40" s="68"/>
       <c r="E40" s="21">
         <v>3</v>
       </c>
@@ -2169,11 +2171,11 @@
       <c r="B41" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="73">
+      <c r="C41" s="68">
         <f>C37*0.02</f>
         <v>4000</v>
       </c>
-      <c r="D41" s="73"/>
+      <c r="D41" s="68"/>
       <c r="E41" s="21">
         <v>2</v>
       </c>
@@ -2186,6 +2188,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="A7:F7"/>
@@ -2194,13 +2203,6 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2211,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,113 +2231,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="A2" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -3434,11 +3436,11 @@
         <v>33</v>
       </c>
       <c r="I51" s="14">
-        <v>15000</v>
+        <v>14999</v>
       </c>
       <c r="J51" s="36">
         <f>G51*I51</f>
-        <v>15000</v>
+        <v>14999</v>
       </c>
       <c r="K51" s="13"/>
       <c r="M51" s="17"/>
@@ -3532,7 +3534,7 @@
       <c r="I55" s="16"/>
       <c r="J55" s="16">
         <f>SUM(J18:J53)</f>
-        <v>228081.1803271111</v>
+        <v>228080.1803271111</v>
       </c>
       <c r="K55" s="19"/>
     </row>
@@ -3541,11 +3543,11 @@
       <c r="B57" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="73">
+      <c r="C57" s="68">
         <f>J55</f>
-        <v>228081.1803271111</v>
-      </c>
-      <c r="D57" s="73"/>
+        <v>228080.1803271111</v>
+      </c>
+      <c r="D57" s="68"/>
       <c r="E57" s="21">
         <v>100</v>
       </c>
@@ -3561,10 +3563,10 @@
       <c r="B58" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="76">
+      <c r="C58" s="71">
         <v>200000</v>
       </c>
-      <c r="D58" s="76"/>
+      <c r="D58" s="71"/>
       <c r="E58" s="21"/>
       <c r="F58" s="44"/>
       <c r="G58" s="45"/>
@@ -3578,14 +3580,14 @@
       <c r="B59" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="76">
+      <c r="C59" s="71">
         <f>C58-C61-C62</f>
         <v>190000</v>
       </c>
-      <c r="D59" s="76"/>
+      <c r="D59" s="71"/>
       <c r="E59" s="21">
         <f>C59/C57*100</f>
-        <v>83.303672721924897</v>
+        <v>83.304037960467781</v>
       </c>
       <c r="F59" s="44"/>
       <c r="G59" s="45"/>
@@ -3599,14 +3601,14 @@
       <c r="B60" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="73">
+      <c r="C60" s="68">
         <f>C57-C59</f>
-        <v>38081.180327111098</v>
-      </c>
-      <c r="D60" s="73"/>
+        <v>38080.180327111098</v>
+      </c>
+      <c r="D60" s="68"/>
       <c r="E60" s="21">
         <f>100-E59</f>
-        <v>16.696327278075103</v>
+        <v>16.695962039532219</v>
       </c>
       <c r="F60" s="44"/>
       <c r="G60" s="45"/>
@@ -3620,11 +3622,11 @@
       <c r="B61" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="73">
+      <c r="C61" s="68">
         <f>C58*0.03</f>
         <v>6000</v>
       </c>
-      <c r="D61" s="73"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="21">
         <v>3</v>
       </c>
@@ -3640,11 +3642,11 @@
       <c r="B62" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="73">
+      <c r="C62" s="68">
         <f>C58*0.02</f>
         <v>4000</v>
       </c>
-      <c r="D62" s="73"/>
+      <c r="D62" s="68"/>
       <c r="E62" s="21">
         <v>2</v>
       </c>
@@ -3657,6 +3659,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="A7:F7"/>
@@ -3665,13 +3674,6 @@
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -3837,14 +3839,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -3858,90 +3860,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
+      <c r="A2" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="3" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
     </row>
     <row r="4" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="87">
+      <c r="C6" s="78">
         <f>F29</f>
         <v>226120.14918209484</v>
       </c>
-      <c r="D6" s="88"/>
+      <c r="D6" s="79"/>
       <c r="E6" s="53"/>
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
@@ -3949,11 +3951,11 @@
         <v>55</v>
       </c>
       <c r="I6" s="52"/>
-      <c r="J6" s="87">
+      <c r="J6" s="78">
         <f>I29</f>
-        <v>228081.1803271111</v>
-      </c>
-      <c r="K6" s="88"/>
+        <v>228080.1803271111</v>
+      </c>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
@@ -3962,77 +3964,77 @@
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="I7" s="81" t="s">
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="I7" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="str">
+      <c r="A8" s="72" t="str">
         <f>Estimate!A6</f>
         <v>Project:- बिन्ध्यबासिनी मन्दिर जाने सडक ढलान</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="I8" s="82" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="I8" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="str">
+      <c r="A9" s="86" t="str">
         <f>Estimate!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="I9" s="82" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="I9" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="78" t="s">
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="77" t="s">
+      <c r="K11" s="87" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="55" t="s">
         <v>64</v>
       </c>
@@ -4051,10 +4053,10 @@
       <c r="I12" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="78"/>
-      <c r="K12" s="77"/>
-    </row>
-    <row r="13" spans="1:11" s="18" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="J12" s="88"/>
+      <c r="K12" s="87"/>
+    </row>
+    <row r="13" spans="1:11" s="18" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A13" s="66">
         <f>Estimate!A9</f>
         <v>1</v>
@@ -4377,7 +4379,7 @@
       <c r="I24" s="56"/>
       <c r="J24" s="57"/>
       <c r="K24" s="58"/>
-      <c r="M24" s="89"/>
+      <c r="M24" s="67"/>
     </row>
     <row r="25" spans="1:13" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="66">
@@ -4410,15 +4412,15 @@
       </c>
       <c r="H25" s="56">
         <f>Valuation!I51</f>
-        <v>15000</v>
+        <v>14999</v>
       </c>
       <c r="I25" s="56">
         <f>G25*H25</f>
-        <v>15000</v>
+        <v>14999</v>
       </c>
       <c r="J25" s="57">
         <f>I25-F25</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K25" s="58"/>
     </row>
@@ -4507,16 +4509,29 @@
       <c r="H29" s="62"/>
       <c r="I29" s="62">
         <f>SUM(I13:I27)</f>
-        <v>228081.1803271111</v>
+        <v>228080.1803271111</v>
       </c>
       <c r="J29" s="63">
         <f>I29-F29</f>
-        <v>1961.0311450162553</v>
+        <v>1960.0311450162553</v>
       </c>
       <c r="K29" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -4524,23 +4539,10 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="80" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;LPrepared By:
 &amp;CChecked By:
@@ -4554,7 +4556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -4572,113 +4574,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+      <c r="A2" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -5884,11 +5886,11 @@
       <c r="B57" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="73">
+      <c r="C57" s="68">
         <f>J55</f>
         <v>228081.1803271111</v>
       </c>
-      <c r="D57" s="73"/>
+      <c r="D57" s="68"/>
       <c r="E57" s="21">
         <v>100</v>
       </c>
@@ -5904,10 +5906,10 @@
       <c r="B58" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="76">
+      <c r="C58" s="71">
         <v>200000</v>
       </c>
-      <c r="D58" s="76"/>
+      <c r="D58" s="71"/>
       <c r="E58" s="21"/>
       <c r="F58" s="44"/>
       <c r="G58" s="45"/>
@@ -5921,11 +5923,11 @@
       <c r="B59" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="76">
+      <c r="C59" s="71">
         <f>C58-C61-C62</f>
         <v>190000</v>
       </c>
-      <c r="D59" s="76"/>
+      <c r="D59" s="71"/>
       <c r="E59" s="21">
         <f>C59/C57*100</f>
         <v>83.303672721924897</v>
@@ -5942,11 +5944,11 @@
       <c r="B60" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="73">
+      <c r="C60" s="68">
         <f>C57-C59</f>
         <v>38081.180327111098</v>
       </c>
-      <c r="D60" s="73"/>
+      <c r="D60" s="68"/>
       <c r="E60" s="21">
         <f>100-E59</f>
         <v>16.696327278075103</v>
@@ -5963,11 +5965,11 @@
       <c r="B61" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="73">
+      <c r="C61" s="68">
         <f>C58*0.03</f>
         <v>6000</v>
       </c>
-      <c r="D61" s="73"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="21">
         <v>3</v>
       </c>
@@ -5983,11 +5985,11 @@
       <c r="B62" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="73">
+      <c r="C62" s="68">
         <f>C58*0.02</f>
         <v>4000</v>
       </c>
-      <c r="D62" s="73"/>
+      <c r="D62" s="68"/>
       <c r="E62" s="21">
         <v>2</v>
       </c>
@@ -6000,6 +6002,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="A7:F7"/>
@@ -6008,16 +6017,9 @@
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
   </headerFooter>
